--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1314232.681655182</v>
+        <v>1358275.375580367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17281035.08926389</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6752534.26326786</v>
+        <v>6776204.541162654</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>327.2879775827834</v>
+        <v>310.1891689264509</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>156.4273818441188</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.85450227885472</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>67.22683568933304</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>104.8485779923437</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>36.56453789817022</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>13.45203464945031</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,7 +1354,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218096</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>275.2704214118794</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015912</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.62483121292163</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765949</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,10 +1661,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>347.6097274870441</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,10 +1765,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>117.886238151385</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>107.8580766794769</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>146.9399060518606</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2053,22 +2053,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>157.8824880649889</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>81.49380289235407</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773013</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>73.99920364759188</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2764,10 +2764,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>161.772553380663</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>208.2631588479963</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>126.5517316786946</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>27.07950026194668</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3560,7 +3560,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655108</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>79.58540461744437</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,10 +3718,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>187.5234134555184</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>154.438063524568</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665274</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>65.54144271872356</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4034,13 +4034,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089034</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>146.9399060518606</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,10 +4135,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>105.6319392430754</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>850.7040527034809</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>412.5615798869042</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>99.23918703190333</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>69.50484623060257</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978671</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978671</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978671</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978671</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299067</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257661</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.823806883757</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.823806883757</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1701.206856817583</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1296.351402228617</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1281.249342848331</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>872.9632191479847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.4134728640019</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067196</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>961.562849724537</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>439.8312191893369</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151645</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>463.8877024481754</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>923.3715696290885</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1365.630372786733</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1785.299622012514</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.698259146386</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2262.47321271609</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2103.231844014087</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1857.352397592542</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1578.919396845647</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1291.963888716077</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1019.937484302369</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>774.5457296357815</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>616.5382732275807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1629.277535444727</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1357.251131031019</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1111.859376364431</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>884.4397056785397</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>926.8602222823092</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>892.7581535061365</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>860.8887727209851</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>831.1544319196844</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>725.2467773819635</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>323.8489460052274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.71879144844362</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>34.71879144844362</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>464.3638356229334</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>894.0088797974232</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>894.0088797974232</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>894.0088797974232</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>894.0088797974232</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>894.0088797974232</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1323.653923971913</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1373.322622356008</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>968.4671677670408</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>953.3651083867555</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>949.119388726813</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.8905364397364</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>434.4340752763787</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>339.3437864229319</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>245.2233717498856</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.8395333660472</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>76.45444363223115</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>34.71879144844362</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.78246460890122</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>385.3407895751135</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>814.9858337496033</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.785774832913</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.958552927252</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1634.503115375635</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1504.324471706237</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.987924706205</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.870406768205</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>943.5476525013987</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>788.6802167402788</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>662.1944375194995</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.2863697271296</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>306.7246582103546</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>293.136744423031</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>123.3787406737683</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>123.3787406737683</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>123.3787406737683</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>123.3787406737683</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>34.71879144844362</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>34.71879144844362</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>300.2226223896164</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>718.4325041575775</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>718.4325041575775</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1148.077548332067</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1567.746797557849</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1567.746797557849</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.939572422181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.939572422181</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1457.506571675287</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1170.551063545717</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>898.5246591320085</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>898.5246591320085</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>671.1049884461167</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.879170851551</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034974</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209419</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.052168367714</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>776.1847387769217</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>374.7869074001856</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,19 +5048,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.836108510713</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510713</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112635</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457495</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036805</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336459</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>921.2561952691947</v>
+        <v>1033.649484784619</v>
       </c>
       <c r="C16" t="n">
-        <v>748.6944837524196</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D16" t="n">
         <v>748.6944837524196</v>
@@ -5428,13 +5428,13 @@
         <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875565</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1340.494484674074</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.074813988182</v>
+        <v>1225.468103503606</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284814</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.379689494032</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.424181364463</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697875</v>
+        <v>1455.454592220188</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011983</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.756877347711</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309359</v>
+        <v>917.6259669185113</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6163,7 +6163,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>926.7810588588592</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F28" t="n">
         <v>407.7542895545774</v>
@@ -6412,22 +6412,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724682</v>
+        <v>2150.393015473604</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595112</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181404</v>
+        <v>1591.411102930326</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831959</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
         <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,7 +6643,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6844,7 +6844,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6917,46 +6917,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573036</v>
+        <v>843.1660143917136</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2591.090418174897</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2345.210971753353</v>
       </c>
       <c r="U37" t="n">
-        <v>2265.02878318778</v>
+        <v>2066.777971006458</v>
       </c>
       <c r="V37" t="n">
-        <v>1978.07327505821</v>
+        <v>1779.822462876888</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.046870644502</v>
+        <v>1507.79605846318</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.655115977915</v>
+        <v>1262.404303796593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>1034.984633110701</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7175,37 +7175,37 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.4836598467</v>
@@ -7214,10 +7214,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>617.775144876989</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>617.775144876989</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>448.0171411277262</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>271.3100870894824</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.949044954128</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954128</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>982.1554751127505</v>
+        <v>947.2320137580462</v>
       </c>
       <c r="C43" t="n">
-        <v>809.5937635959758</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D43" t="n">
-        <v>643.7157707974985</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E43" t="n">
-        <v>473.9577670482358</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F43" t="n">
-        <v>473.9577670482358</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>308.3664920740634</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H43" t="n">
-        <v>168.4643177644398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>787.6807519874947</v>
       </c>
       <c r="G44" t="n">
         <v>386.2829206107589</v>
@@ -7658,16 +7658,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
@@ -7682,10 +7682,10 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.38502577451</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X44" t="n">
         <v>3357.960878247378</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.0533615061033</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C46" t="n">
-        <v>837.3544329777442</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D46" t="n">
         <v>837.3544329777442</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2691.977765289287</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.098318867742</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.665318120847</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.709809991278</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.68340557757</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.291650910982</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.871980225091</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>395.994243215704</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>333.7359971049209</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>433.9848931055453</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>433.9848931055453</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>433.9848931055453</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.4501499497658</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.9848931055453</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>339.5504009179995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055453</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>268.1856878193664</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055453</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,13 +8696,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.035541581457</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,7 +10118,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.5985112554903</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10.9684315993365</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.011132734621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>11.38105307846763</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>52.94985625022227</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>135.0797604404448</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>117.7661826744368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>90.22000922290064</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>113.8761173587627</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>34.67467827192533</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424608</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>31.0972233362887</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>248.569170477479</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>84.34995760698624</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>96.56253959275547</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>22.23190701434785</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25922,13 +25922,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>268.0111327346214</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.20415515853193</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>581351.1256709824</v>
+        <v>585863.7960961214</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>581351.1256709824</v>
+        <v>588834.0269055829</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>581649.2191270184</v>
+        <v>588834.0269055829</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569484.198928699</v>
+        <v>569484.1989286989</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>569484.1989286989</v>
+        <v>593517.08288335</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>593517.0828833501</v>
+        <v>593517.08288335</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593517.0828833501</v>
+        <v>569484.1989286988</v>
       </c>
     </row>
     <row r="16">
@@ -26317,28 +26317,28 @@
         <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
-        <v>353866.7285801736</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="F2" t="n">
         <v>353866.7285801735</v>
       </c>
       <c r="G2" t="n">
-        <v>353866.7285801735</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="L2" t="n">
         <v>368800.3088961467</v>
@@ -26347,10 +26347,10 @@
         <v>368800.3088961467</v>
       </c>
       <c r="N2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="O2" t="n">
-        <v>368800.3088961467</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="P2" t="n">
         <v>353866.7285801736</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476935</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745907</v>
       </c>
       <c r="D3" t="n">
-        <v>3009.705123905514</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>231462.0891550076</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>18633.22400329721</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256751</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.9367839333</v>
       </c>
       <c r="L3" t="n">
-        <v>2452.207705354829</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193186.6328590335</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>158508.4222774737</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>185645.1736378004</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960743</v>
       </c>
       <c r="F4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26451,10 +26451,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991274</v>
+        <v>39457.78817960743</v>
       </c>
       <c r="P4" t="n">
         <v>39457.78817960744</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696291</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>60013.88150081715</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>73519.34227764752</v>
+      </c>
+      <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
-      <c r="F5" t="n">
-        <v>73519.34227764752</v>
-      </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13877.49792945955</v>
+        <v>-42894.14581884404</v>
       </c>
       <c r="C6" t="n">
-        <v>128313.8027302504</v>
+        <v>130516.8171851648</v>
       </c>
       <c r="D6" t="n">
-        <v>126634.363660763</v>
+        <v>161706.8521226237</v>
       </c>
       <c r="E6" t="n">
-        <v>9427.508967910951</v>
+        <v>79077.96435800735</v>
       </c>
       <c r="F6" t="n">
-        <v>240889.5981229185</v>
+        <v>240813.0395681217</v>
       </c>
       <c r="G6" t="n">
-        <v>240889.5981229186</v>
+        <v>231007.3660588942</v>
       </c>
       <c r="H6" t="n">
-        <v>231325.8943571443</v>
+        <v>249935.8940210588</v>
       </c>
       <c r="I6" t="n">
-        <v>249959.1183604414</v>
+        <v>249935.8940210587</v>
       </c>
       <c r="J6" t="n">
-        <v>138944.6530154513</v>
+        <v>100544.2975953836</v>
       </c>
       <c r="K6" t="n">
-        <v>249959.1183604414</v>
+        <v>225088.9572371253</v>
       </c>
       <c r="L6" t="n">
-        <v>247506.9106550867</v>
+        <v>249935.8940210588</v>
       </c>
       <c r="M6" t="n">
-        <v>56772.48550140795</v>
+        <v>114945.9494080554</v>
       </c>
       <c r="N6" t="n">
-        <v>249959.1183604415</v>
+        <v>249935.8940210589</v>
       </c>
       <c r="O6" t="n">
-        <v>249959.1183604415</v>
+        <v>240813.0395681217</v>
       </c>
       <c r="P6" t="n">
-        <v>240889.5981229187</v>
+        <v>240813.0395681218</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>433.9848931055453</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="D4" t="n">
-        <v>9.689035585440925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>775.2148154083945</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>69.06079487080569</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585440925</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083943</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585440925</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083945</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>69.06079487080569</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945165</v>
+        <v>121.361518050849</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27430,19 +27430,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.54491999896322</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27546,16 +27546,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>68.718092134914</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>223.8561827421948</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.3487601844884</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>216.8591173589408</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>318.7401773025406</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>150.7671782210422</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>395.994243215704</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>333.7359971049209</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>433.9848931055453</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>433.9848931055453</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>433.9848931055453</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.4501499497658</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.9848931055453</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>339.5504009179995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055453</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>268.1856878193664</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055453</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,22 +35416,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.035541581457</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,7 +35650,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36531,10 +36531,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
